--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -65,14 +65,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -432,9 +432,9 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.805425" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.170625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.665425" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -138,7 +138,7 @@
 </x:table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -421,7 +421,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -122,6 +122,41 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:dxfs count="1">
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="14" formatCode="M/d/yyyy"/>
+      <x:fill>
+        <x:patternFill patternType="none">
+          <x:fgColor indexed="64"/>
+          <x:bgColor indexed="64"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+  </x:dxfs>
 </x:styleSheet>
 </file>
 
@@ -132,7 +167,7 @@
     <x:tableColumn id="1" name="Dosage"/>
     <x:tableColumn id="2" name="Drug"/>
     <x:tableColumn id="3" name="Patient"/>
-    <x:tableColumn id="4" name="Date"/>
+    <x:tableColumn id="4" name="Date" dataDxfId="0"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -122,6 +122,38 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:dxfs count="1">
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="14" formatCode="M/d/yyyy"/>
+      <x:fill>
+        <x:patternFill patternType="none"/>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+  </x:dxfs>
 </x:styleSheet>
 </file>
 
@@ -132,7 +164,7 @@
     <x:tableColumn id="1" name="Dosage"/>
     <x:tableColumn id="2" name="Drug"/>
     <x:tableColumn id="3" name="Patient"/>
-    <x:tableColumn id="4" name="Date"/>
+    <x:tableColumn id="4" name="Date" dataDxfId="0"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -124,34 +124,12 @@
   </x:cellStyles>
   <x:dxfs count="1">
     <x:dxf>
-      <x:font>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-      </x:font>
+      <x:font/>
       <x:numFmt numFmtId="14" formatCode="M/d/yyyy"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border diagonalUp="0" diagonalDown="0">
-        <x:left style="none">
-          <x:color rgb="FF000000"/>
-        </x:left>
-        <x:right style="none">
-          <x:color rgb="FF000000"/>
-        </x:right>
-        <x:top style="none">
-          <x:color rgb="FF000000"/>
-        </x:top>
-        <x:bottom style="none">
-          <x:color rgb="FF000000"/>
-        </x:bottom>
-        <x:diagonal style="none">
-          <x:color rgb="FF000000"/>
-        </x:diagonal>
-      </x:border>
+      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -157,7 +157,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0">
   <x:autoFilter ref="A1:D6"/>
   <x:tableColumns count="4">

--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -124,12 +124,10 @@
   </x:cellStyles>
   <x:dxfs count="1">
     <x:dxf>
-      <x:font/>
       <x:numFmt numFmtId="14" formatCode="M/d/yyyy"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -142,7 +142,7 @@
     <x:tableColumn id="3" name="Patient"/>
     <x:tableColumn id="4" name="Date" dataDxfId="0"/>
   </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 

--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -125,9 +125,6 @@
   <x:dxfs count="1">
     <x:dxf>
       <x:numFmt numFmtId="14" formatCode="M/d/yyyy"/>
-      <x:fill>
-        <x:patternFill patternType="none"/>
-      </x:fill>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Information" displayName="Information" ref="A1:D6" totalsRowShown="0">
   <x:autoFilter ref="A1:D6"/>
   <x:tableColumns count="4">
     <x:tableColumn id="1" name="Dosage"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -437,10 +437,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.805425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.665425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.525425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.900625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.415425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.715425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
